--- a/2-Small_Assessments_Output_GHA_Input_Chinese.xlsx
+++ b/2-Small_Assessments_Output_GHA_Input_Chinese.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23580" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="870">
   <si>
     <t>Your target: Keep your current level of flexibility.</t>
   </si>
@@ -1002,2120 +1002,2001 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Your body composition is based on your body measurements. Although you can't change your frame size or height, you can change your weight and waist measurements. Your body fat percentage is estimated to be $body_fat_percent%. BFAT_MSG  Your body mass index is $bmi. The recommended BMI is between 19.5 and 25, people with a low body fat % may score slightly higher.  The healthy weight range for your height is $low_weight to $high_weight.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Keep up your current level of heart fitness.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexibility allows you to have a full range of motion. Good trunk flexibility may protect you from lower back pain.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muscular fitness allows us to perform daily tasks with less physiological stress.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart fitness tests measure your heart's ability to support moderately strenuous activity over an extended period of time. The term aerobic fitness is often used instead.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This report contains the result of your fitness assessment. This is different from a checkup or a physical exam you'd get from your doctor or a nurse. It can’t tell you if you’re sick or have a medical problem, but it can help you identify areas in need of improvement in your current level of fitness.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips for men</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>En este informe se hará hincapié en las cosas que usted puede controlar.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce your weight to between  $low_weight and $high_weight $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep your weight between $range $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get your weight to between $low_weight and $high_weight $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your weight of $weight $weight_units is WEIGHT_HABITS the recommended range for people HEIGHT tall. Your body mass index is $bmi. A healthy BMI is between 19.5 and 25. The healthy weight range for your height is $low_weight and $high_weight $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drc_variables.tmpl文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Keep your weight between $low_weight and $high_weight $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续定期锻炼，每周3至5次，以维持理想的体重和最佳健康状态。最好是每天散步或者进行有氧运动至少30分钟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续定期锻炼，每周3至5次，以维持最佳健康状态。最好是每天散步或者进行有氧运动至少30分钟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macrosomia (very large baby) occurs when the mother's blood sugar level is high. This allows too much sugar to go to the fetus and can cause the fetus to grow too large.  This could indicate you may have had gestational diabetes mellitus (GDM), HIGH BLOOD SUGAR, while pregnant.  Maintaining weight in a normal range and exercising regularly can reduce this risk. Women who have had GDM should have their blood  sugar checked regularly and before they become pregnant again.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>With your risk level being high, you should have your blood sugar checked before you become pregnant and during any pregnancies.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>With your risk level being moderate, you should have your blood sugar checked before you become pregnant and during any pregnancies.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Symptoms include unusual thirst, extreme fatigue, unusual weight changes, and increased urination, especially at night.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You should be tested regularly for the disease, as recommended by the American Diabetes Association.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是鉴于您的风险因素，您应该向您的医生咨询是否需要更频繁的检查。</t>
+  </si>
+  <si>
+    <t>Keep in mind that being $race increases your chances for having diabetes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predispositions are risk factors you cannot control - like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This one factor makes it more important that you keep exercising and watch your weight.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>These DISP_NUM factors makes it more important that you EXERCISE_POINT exercising and WEIGHT_POINT your weight.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>At this time, you do not have any predispostions to having diabetes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>drc_2.tmpl文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏风险评估可帮助您确定您的心脏病和中风风险。</t>
+  </si>
+  <si>
+    <t>If you have suffered renal failure or heart failure, your target blood pressure may be lower.  Get the recommended levels from your physician.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High blood pressure (hypertension) can be serious. It puts extra stress on your heart and blood vessels, which can cause heart disease or stroke. Consult your health care provider for ways to lower your blood pressure. These steps may include a low-fat diet, medication, and exercise.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>High blood pressure (hypertension) can be serious. It puts extra stress on your heart and blood vessels, which can cause heart disease or stroke. Your blood pressure is considered prehypertension.  This means that you don't have high blood pressure now but are at increased risk of developing it in the future.  Consult your health care provider for ways to lower your blood pressure. These steps may include a low-fat diet, exercise and other lifestyle changes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血压可能会导致严重后果。它会对您的心脏和血管造成额外压力，从而导致心脏病或中风。请向您的医护人员咨询降低血压的方法。措施可能包括低脂肪膳食、服药和锻炼。</t>
+  </si>
+  <si>
+    <t>健康专家推荐每周锻炼3至5次。最好是每天散步或者进行有氧运动至少30分钟。但是在开始锻炼计划之前，请咨询您的医护人员。</t>
+  </si>
+  <si>
+    <t>You reported that your blood pressure is high. See your health care provider and get it checked soon.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You reported that you do not know your blood pressure reading. Get it checked immediately.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有输入您的血压数值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Get your blood pressure below 140/90 and ideally below 120/80.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的血压控制在140/90以下，最好是120/80以下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Try to bring your blood pressure to the ideal reading of below 120/80.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：努力将血压控制在120/80以下这一理想范围内。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：查明您的血压。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的血压控制在120/80以下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：没有为血压输入数值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Lower your total cholesterol to under CHOLESTEROL_TARGET.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的总胆固醇降至CHOLESTEROL_TARGET以下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：查明您的总胆固醇水平。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Keep your total cholesterol between LOW_TARGET and CHOLESTEROL_TARGET.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的总胆固醇控制在LOW_TARGET和CHOLESTEROL_TARGET之间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You reported that you do not know your total cholesterol level. To ensure your health, get this information from your health care provider. If you have not had your cholesterol checked, it's simple. Ideally your cholesterol should be under CHOLESTEROL_TARGET. Have your cholesterol checked to make sure you're under this level.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您不知道自己的总胆固醇水平。为了确保您的健康，请从您的医护人员那里了解该信息。如果您还没有检查您的胆固醇，做这个检查非常简单。您的胆固醇最好应该在CHOLESTEROL_TARGET以下。检查您的胆固醇以确保您处于该水平以下。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您的胆固醇水平正常。向您的医护人员咨询有关您当前胆固醇水平的建议。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cholesterol was entered for your total cholesterol level. This is within the ideal level for cholesterol, which is below CHOLESTEROL_TARGET.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cholesterol was entered for your total cholesterol level. This is slightly above the ideal level for cholesterol, which is below CHOLESTEROL_TARGET. Ask your health care provider about ways to lower your cholesterol. Check the stories and resources listed at the end of this report for more tips.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为您的总胆固醇水平输入了$cholesterol。这属于理想的胆固醇水平——低于CHOLESTEROL_TARGET。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您的总胆固醇水平较高。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为您的总胆固醇水平输入了$cholesterol。这略高于理想的胆固醇水平（低于CHOLESTEROL_TARGET）。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为您的总胆固醇水平输入了$cholesterol。这明显高于理想的胆固醇水平（低于CHOLESTEROL_TARGET）。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$cholesterol was entered for your total cholesterol level. This is below the ideal level for cholesterol, which is between LOW_TARGET and CHOLESTEROL_TARGET.  Check the stories and resources listed at the end of this report for more tips.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为您的总胆固醇水平输入了$cholesterol。这低于理想的胆固醇水平（ LOW_TARGET和CHOLESTEROL_TARGET之间）。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了确保您的健康，请从您的医护人员那里了解该信息。如果您还没有检查您的胆固醇，做这个检查非常简单。您的胆固醇最好应该在CHOLESTEROL_TARGET以下。检查您的胆固醇以确保您处于该水平以下。</t>
+  </si>
+  <si>
+    <t>您的总胆固醇未知，您觉得较高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇未知，您不知道其范围。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇未知，您觉得正常。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇处于理想范围内。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇略高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇较高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的总胆固醇较低。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl. You are below the recommended level for HDL which is HDL_TARGET_LOW.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl。这低于高密度脂蛋白的推荐水平HDL_TARGET_LOW。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl. You are below the optimum level for HDL which is HDL_TARGET_HIGH.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl。这低于高密度脂蛋白的适宜水平HDL_TARGET_HIGH。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You did not enter a value for your HDL cholesterol (good cholesterol).  The recommended level is above HDL_TARGET_LOW. Since you entered a value for your cholesterol we have used an estimated value for your HDL for some computations.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有为您的高密度脂蛋白胆固醇（有益胆固醇）输入数值。推荐水平是高于HDL_TARGET_LOW。由于您输入了胆固醇数值，因此我们使用了高密度脂蛋白预测值来进行一些计算。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You did not enter a value for your HDL cholesterol (good cholesterol).  The recommended level is above HDL_TARGET_LOW.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您没有为您的高密度脂蛋白胆固醇（有益胆固醇）输入数值。推荐水平为高于HDL_TARGET_LOW。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl which is great.  The optimum level is HDL_TARGET_HIGH or above.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl，这是很理想的数值。适宜水平是HDL_TARGET_HIGH或更高。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your HDL level is $hdl.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的高密度脂蛋白水平是$hdl。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的高密度脂蛋白水平未知。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的高密度脂蛋白提升至高于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：查明您的高密度脂蛋白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的高密度脂蛋白保持为高于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：保持您当前的锻炼强度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：每周进行一些锻炼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You exercise $exercise times per week.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每周锻炼$exercise次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每周锻炼1次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您不锻炼。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Keep your weight between $low_weight and $high_weight $weight_units.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的体重控制在$low_weight和$high_weight $weight_units之间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的体重降至$low_weight和$high_weight $weight_units之间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：将您的体重控制在$low_weight和$high_weight $weight_units之间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：降低您的体重。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your weight is $weight $weight_units, which for you is a BMI of $bmi.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的体重是$weight $weight_units，您的身体质量指数是$bmi。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Your weight of $weight $weight_units is </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的体重$weight $weight_units是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the recommended range for people HEIGHT tall.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于身高为HEIGHT的人的推荐范围。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的身体质量指数是$bmi；大多数专业人士认为该指数应该介于19.5和25之间。对于您的身高而言，健康的体重应该介于$low_weight和$high_weight $weight_units之间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：保持这个良好的饮食习惯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Limit the amount of fatty foods in your diet.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：在您的饮食中控制高脂肪食物的数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您坚持低饱和脂肪含量的饮食。这可以降低您的心脏病和动脉硬化风险。保持这个好习惯！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You reported occasionally eating foods that are high in cholesterol and fat.  Try to reduce your intake of fat to once a week.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您每天食用高胆固醇和高脂肪的食物。为了降低您饮食中的脂肪含量，您应该避免食用油炸食品、奶酪和全脂奶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您食用高胆固醇和高脂肪的食物。为了降低您饮食中的脂肪含量，您应该避免食用油炸食品、奶酪和全脂奶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（由于您患有糖尿病，请确保咨询您的医生。）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's good to eat at least 25-30 grams of high-fiber foods every day. Bran cereal or whole-grain bread with breakfast, salads with lunch and dinner, and two servings of cooked vegetables a day would help you reach this goal.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天最好食用至少25-30克的高纤维食物。早餐食用麦麸麦片或全麦面包、午餐和晚餐食用沙拉以及每天食用两份煮熟的蔬菜将会帮助您达到这一目标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好！每天最好食用至少25-30克的高纤维食物。早餐食用麦麸麦片或全麦面包、午餐和晚餐食用沙拉以及每天食用两份煮熟的蔬菜将会帮助您达到这一目标。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：努力每天食用至少25-30克的高纤维食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：恭喜您！请确保每天食用25-30克的高纤维食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You seldom eat fiber.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您很少吃高纤维食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每周吃一些高纤维食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您从不吸烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您曾经吸烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每天吸1根烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking $cigs_a_day cigarettes a day puts you at HIGH risk!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每天吸$cigs_a_day根烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天吸$cigs_a_day根烟会让您处于高风险！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好！不吸烟让您避免了导致心脏病和癌症的最主要成因。同时您也让周围的人免遭二手烟的伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoking is the number one preventable cause of heart disease and some cancers.  You are putting your heart at risk by continuing to smoke.  Even smoking $cigs_a_day cigarettes a day raises your risk. Get on a plan to quit soon. Check out the stories and resources at the end of this report for help on quitting.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟是心脏病和一些癌症的最主要可预防成因。继续吸烟将会使您的心脏和肺部承受风险。立刻开始戒烟计划。查看该报告底部的案例和资源，以获得戒烟帮助。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：保持不吸烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your target: Stay an ex-smoker.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：保持戒烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：戒烟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stress you reported can add to your risk. Try to relax, and be gentle with yourself.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告的压力可以增加您的风险。努力让自己放松，对自己友善一些。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A personal loss can take a toll on your emotions as well as your body. Don't put undue pressure on yourself or withdraw. Speaking with a trusted friend, pastor, spiritual adviser, or counselor can help ease the stress.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人损失可以对自己的情绪和身体造成严重损害。不要给自己过分的压力或者退避。与信赖的好友、牧师、心灵导师或者顾问交谈可以缓解这种压力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You reported the personal factors of PERSONAL_RISK. This makes it extra important to reach the target values in the areas you can control.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告了PERSONAL_RISK的个人因素。这使得您达到您能够控制的方面的目标数值尤为重要。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于$age-yasindaki LC_SEX而言非常低的风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Half the risk for an average $age-yasindaki LC_SEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于$age-yasindaki LC_SEX的平均风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显著高于$age-yasindaki LC_SEX的平均风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高于$age-yasindaki LC_SEX的平均风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>患有糖尿病</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and a history of family heart disease</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以及拥有家族心脏病史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据您提供的答案，您在未来10年内死于心脏病的几率是千分之CARDIAC_RISK_ROUNDED。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The good habits which help to reduce your score are,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有助于降低您的分数的良好习惯是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看您的目标并努力在这些方面作出改进；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该报告包含心脏风险评估的结果。它不同于医生或护士的体检或健康检查，不能表明您是否生病或者有身体问题，只能提供一些降低心脏病和中风风险的建议。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，该评估不能替代医生的健康检查，并不能发现具体的健康问题。它只能显示如何避免您的年龄段和性别的人群的最常见病因。请咨询健康专业人士。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average rates are based on data from death certificates of the World Health Organization adjusted for certain personal factors and reflect current patterns of health, medical practices and environmental conditions. All risks are calculated from data and algorithms Carter Center Project PEOPLE HEALTHIER Emory University with the technical support of 25 other major health agencies.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均比率基于世界卫生组织的死亡证明数据，根据某些个人因素进行了调整，并反映了当前的健康型态、医疗实践和环境状况。所有风险均采用埃默里大学卡特中心PEOPLE HEALTHIER项目的数据和算法计算，并获得了来自25个其他主要健康机构的技术支持。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHA问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的总体健康风险评估让您了解您的健康风险，并告知您可以通过改变哪些重要习惯以变得更加健康。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康风险评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康风险结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康评估输入信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康风险输入信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述您的吸烟习惯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否曾被告知患有糖尿病？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have an immediate family member (father, mother, sister or brother) who have/had diabetes or sugar diabetes?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否有直系亲属（父亲、母亲、姐妹或兄弟）患有或曾经患有糖尿病？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否有家族（父亲、母亲、姐妹或兄弟）心脏病史，例如高血压、中风、心脏病发作或充血性心力衰竭？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否有个人心脏病史，例如高血压、中风、心脏病发作或充血性心力衰竭？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您目前是否正在服用高血压药物？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您目前是否正在服用高胆固醇药物？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您目前是否正在服药以控制您的血糖？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否按照规定的时间表和剂量服药？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用，我没有服药。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的甘油三酯水平：</t>
+  </si>
+  <si>
+    <t>Enter your HgA1C level:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的糖化血红蛋白水平：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter your SGOT level:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的血清谷草转氨酸水平：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的血清谷丙转氨酶水平：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的谷氨酰转肽酶水平：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入您的心率：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you eat some food every day that is high in fiber, such as whole grain bread, cereal, fresh fruits or vegetables?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否每天食用全谷面包、麦片、新鲜水果或蔬菜等高纤维食物？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否每天食用肥肉、奶酪、油炸食品、黄油或全脂奶等高胆固醇或高脂肪食物？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在多大年龄出现首次月经？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的第一个孩子出生时您多大？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您目前正怀孕吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About how long has it been since your last mammogram (breast x-ray)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您上次接受乳房X光造影检查是多久以前？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many women in your natural family (mother and sisters only) have had breast cancer?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的自然家庭（仅限母亲和姐妹）中有多少女性曾经患有乳腺癌？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一次您的乳房接受护士或医生的检查是什么时候？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否曾经切除子宫？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您上一次接受子宫颈抹片检查是什么时候？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您多久以前接受了直肠检查？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the past year, how many days (include half days or partial days) did you miss work or usual daily activities due to illness or injury?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在过去一年中，您有多少天（包括半天或一天中的部分时间）因为疾病或受伤而耽误工作或者日常活动？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How many times in the last year did you witness or become involved in a violent fight or attack where there was a good chance of a serious injury to someone?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在过去一年中，您有多少次见证或者涉及很可能导致某人严重受伤的斗殴或攻击？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在学校完成的最高年级是几年级？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您从事什么职业？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hra_qset.html文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体健康评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体健康结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体健康输入信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定性别的健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My Family History</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的家族史</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定性别的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定疾病的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Never used tobacco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从未使用烟草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Alcohol Estimator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液酒精浓度估测仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calories Burned Estimator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量消耗估测仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡路里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Energy Expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日耗能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1杯酒被定义为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*啤酒 - 12盎司罐或瓶</t>
+  </si>
+  <si>
+    <t>*葡萄酒 - 5盎司玻璃杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Hard liquor or cocktail - 1.5 ounce shot glass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>大约一半的时间</t>
+  </si>
+  <si>
+    <t>大部分时间</t>
+  </si>
+  <si>
+    <t>损伤信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well Being Information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes - I felt like taking my life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 我不关心任何事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 几乎每天都很沮丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 有几次非常沮丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 偶尔有一点沮丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否 - 从来没有觉得沮丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎每天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔，但不到一半时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从不</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少的时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a good bit of the time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 大部分时间极度紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 大部分时间非常紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>的确有几次感觉相当紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有几次感觉有点紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的整体紧张感相当低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我从来不觉得紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extremely so - I have about given up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>very much so</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 相当多的压力</t>
+  </si>
+  <si>
+    <t>相当多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些 - 足以困扰我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其 - 达到生病的程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>relaxed and at ease all month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个月都轻松自在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分时间轻松自在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt relaxed, at times felt high strung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到轻松，有时觉得紧张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感到紧张，但有时觉得轻松</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high strung or keyed-up most of the time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分时间紧张或激动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个月觉得紧张或激动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 几乎无法承受</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，有一些 - 比平常多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，有一些 - 但是与平常差不多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 有一点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其多 - 我几乎放弃了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点也不</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的医护人员是否曾经告知您患有或者曾经患有以下疾病？请勾选适用的疾病或症状。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直系亲属*</t>
+  </si>
+  <si>
+    <t>*直系亲属是您的父母和兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This completes the Personal Health Informationportion of the general health assessment. It will be presented again at the end of this report.  The next few questions will now assess your Health Risks.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是对总体健康评估的个人健康信息部分的补充。它将在该报告的末尾再次呈现。接下来的几个问题将评估您的健康风险。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟草使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体风险评估的结果将在接下来的几页公布。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您多久以前接受了直肠或前列腺检查？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您多久检查一次乳房肿块？</t>
+  </si>
+  <si>
+    <t>您多久检查一次乳房肿块？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪项正确描述了您的总胆固醇？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述您的烟草使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用至少6份面包、麦片、米饭和意大利面的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用至少2-4份水果的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用至少3-5份蔬菜的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用至少2-3份肉类和乳制品（牛奶和奶酪）的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How often do you eat fatty meats like sausage, steak, roasts or deep fried foods?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用香肠、牛排、烤肉或油炸食品等高脂肪肉类的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How often do you eat rich breads (doughnuts, croissants) and fried grains (chips)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用甜腻面包（甜甜圈、羊角面包）和油炸谷物（薯条）的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>How often do you eat rich desserts ice creams, custards, pies and cakes)?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您食用甜腻甜品（冰淇淋、蛋羹、馅饼和蛋糕）的频率如何？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you have an existing condition that prevents you from exercising?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间感到沮丧吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间是否受到紧张困扰？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I felt downhearted and blue during the past month:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在上个月期间情绪低落和感到沮丧：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Were you generally tense or did you feel any tension during the past month?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间经常感到紧张或者有任何紧张感吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you felt so sad, discouraged, or hopeless or had so many problems that you wondered if anything was worthwhile during the past month?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您上个月期间是否感到非常悲伤、沮丧或绝望，或者拥有许多问题以至于让您怀疑任何事情都不值得去做？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you been anxious, worried, or upset during the past month?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间是否感到焦虑、担心或心烦？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you felt relaxed, or high-strung, tight or keyed up during the past month?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间是否感到放松或者紧张或激动？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have you been under or felt you were under any strain, stress or pressure during the past month?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在上个月期间是否感到任何压力？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力活动</t>
+  </si>
+  <si>
+    <t>总体健康</t>
+  </si>
+  <si>
+    <t>生活满意度</t>
+  </si>
+  <si>
+    <t>血压</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>总胆固醇</t>
+  </si>
+  <si>
+    <t>个人损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alcohol use</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显著超过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算出的身体质量指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>On blood pressure medicine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血压药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度脂蛋白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康的高密度脂蛋白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知高密度脂蛋白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低高密度脂蛋白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪</t>
+  </si>
+  <si>
+    <t>甘油三酯</t>
+  </si>
+  <si>
+    <t>葡萄糖</t>
+  </si>
+  <si>
+    <t>不吸烟</t>
+  </si>
+  <si>
+    <t>戒烟</t>
+  </si>
+  <si>
+    <t>健康体重</t>
+  </si>
+  <si>
+    <t>超重</t>
+  </si>
+  <si>
+    <t>体重不足</t>
+  </si>
+  <si>
+    <t>低脂肪饮食</t>
+  </si>
+  <si>
+    <t>胆固醇比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体组成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low HDL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smoking heavily</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全血压</t>
+  </si>
+  <si>
+    <t>纤维</t>
+  </si>
+  <si>
+    <t>锻炼</t>
+  </si>
+  <si>
+    <t>倾向</t>
+  </si>
+  <si>
+    <t>身体质量指数</t>
+  </si>
+  <si>
+    <t>心脏评估</t>
+  </si>
+  <si>
+    <t>糖尿病评估</t>
+  </si>
+  <si>
+    <t>风险评估</t>
+  </si>
+  <si>
+    <t>胆固醇</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>非常低</t>
+  </si>
+  <si>
+    <t>腰臀比</t>
+  </si>
+  <si>
+    <t>臀部</t>
+  </si>
+  <si>
+    <t>体脂肪</t>
+  </si>
+  <si>
+    <t>详细信息</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>保持</t>
+  </si>
+  <si>
+    <t>自我乳房检​​查</t>
+  </si>
+  <si>
+    <t>更安全地驾驶</t>
+  </si>
+  <si>
+    <t>降低血压</t>
+  </si>
+  <si>
+    <t>定期检查</t>
+  </si>
+  <si>
+    <t>降低胆固醇</t>
+  </si>
+  <si>
+    <t>未知胆固醇</t>
+  </si>
+  <si>
+    <t>过低的胆固醇</t>
+  </si>
+  <si>
+    <t>胆固醇升高</t>
+  </si>
+  <si>
+    <t>多运动</t>
+  </si>
+  <si>
+    <t>减少食物中的脂肪</t>
+  </si>
+  <si>
+    <t>停止吸烟</t>
+  </si>
+  <si>
+    <t>肌肉耐力</t>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+  </si>
+  <si>
+    <t>俯卧撑</t>
+  </si>
+  <si>
+    <t>个人历史</t>
+  </si>
+  <si>
+    <t>持续</t>
+  </si>
+  <si>
+    <t>心肺耐力</t>
+  </si>
+  <si>
+    <t>no regular exercise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birth related</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body Fat Estimator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGOT analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGPT analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GGT analysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily energy expenditure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age of menarch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mammogram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳房X光造影检查</t>
+  </si>
+  <si>
+    <t>Cardiorespitory Endurance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>your family history of diabetes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的目标：每周3次或以上。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您很少吃高脂肪食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每周吃几次高脂肪食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每天吃高脂肪食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您每餐吃高脂肪食物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您报告您偶尔食用高胆固醇和高脂肪的食物。努力将食用高脂肪食物的次数降至每周1次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好！您戒烟了。您已经显著降低了心脏病风险。同时您也让周围的人免遭二手烟的伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸烟是心脏病和一些癌症的最主要可预防成因。继续吸烟将会使您的心脏承受风险。即便每天吸$cigs_a_day根烟也会提高您的风险。立刻开始戒烟计划。查看该报告底部的案例和资源，以获得戒烟帮助。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$age-yasindaki LC_SEX平均水平的一半风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的个性化心脏风险评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的上一次全面体检是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My last general physical exam was?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*烈性酒或鸡尾酒 - 1.5盎司烈酒杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1.5盎司烈酒杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是 - 我觉得要我的命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是否有妨碍您锻炼的现有身体状况？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIT result</t>
+  </si>
+  <si>
+    <t>男性的体脂率通常比女性低，平均约为23%，理想比率为15%。非常健壮的男运动员的体脂率介于5%至10%之间。</t>
+  </si>
+  <si>
     <t>美国女性的平均体脂率约为32%，理想比率为22%。如果您的体脂率约为10%或者更低，您可能患有营养或饮食失调。运动型女性的体脂率约为15%至20%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your body composition is based on your body measurements. Although you can't change your frame size or height, you can change your weight and waist measurements. Your body fat percentage is estimated to be $body_fat_percent%. BFAT_MSG  Your body mass index is $bmi. The recommended BMI is between 19.5 and 25, people with a low body fat % may score slightly higher.  The healthy weight range for your height is $low_weight to $high_weight.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的身体组成基于您的身体测量。虽然您无法更改您的骨架大小或身高，但是您可以改变您的体重和腰围。您的体脂率预计为$body_fat_percent%。BFAT_MSG  您的身体质量指数是$bmi。推荐的身体质量指数介于19.5和25之间，拥有低体脂率的人获得的分数可能略高。根据您的身高，您的健康体重范围是$low_weight至$high_weight。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>你的目标：保持当前的柔韧性水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：提高您的柔韧性水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：保持当前的肌肉耐力水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：增加肌肉耐力水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：保持当前的心脏健康水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Keep up your current level of heart fitness.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：提高您的心脏健康水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flexibility allows you to have a full range of motion. Good trunk flexibility may protect you from lower back pain.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>柔韧性让您的关节能够充分活动。良好的躯干柔韧性可以让您免遭下腰痛。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Muscular fitness allows us to perform daily tasks with less physiological stress.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉健康让我们在实施日常任务时产生更小的生理应激反应。</t>
   </si>
   <si>
     <t>肌肉耐力是对一段时间内的力量进行的衡量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heart fitness tests measure your heart's ability to support moderately strenuous activity over an extended period of time. The term aerobic fitness is often used instead.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>心脏健康测试是测量您的心脏在一段持续时间内支持适度体力活动的能力。往往使用有氧适能一词替代。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This report contains the result of your fitness assessment. This is different from a checkup or a physical exam you'd get from your doctor or a nurse. It can’t tell you if you’re sick or have a medical problem, but it can help you identify areas in need of improvement in your current level of fitness.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的个性化健康评估</t>
   </si>
   <si>
     <t>该报告包含您的健康评估结果。它不同于医生或护士为您实施的体检。它不能表明您是否生病或者出现了身体问题，但是它可以帮助您发现当前哪些方面的健康状况需要改善。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tips for men</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果基于来自美国运动医学会和其他身体健康研究机构的数据。您的健康评估报告将帮助您对定义身体健康的五个主要方面的其中四个进行自我评估：心肺耐力、身体组成、肌肉耐力和柔韧性。若要评估定义健康的第五个要素——肌肉力量，您的当地健身房或者健身中心训练有素的专业人士应该能够提供帮助。</t>
   </si>
   <si>
     <t>对男性的提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一些风险因素是您无法控制的——例如您是LC_SEX，以及年龄是$age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>En este informe se hará hincapié en las cosas que usted puede controlar.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>该报告将突出您可以控制的因素。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce your weight to between  $low_weight and $high_weight $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep your weight between $range $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的体重$weight $weight_units是WEIGHT_HABITS身高为HEIGHT的人的推荐范围。您的身体质量指数是$bmi。健康的身体质量指数是介于19.5和25之间。对于您的身高而言，健康的体重范围是$low_weight至$high_weight $weight_units。</t>
+  </si>
+  <si>
+    <t>使您的体重介于$low_weight和$high_weight $weight_units之间。</t>
+  </si>
+  <si>
+    <t>降低您的体重。</t>
+  </si>
+  <si>
+    <t>将您的体重降至$low_weight和$high_weight $weight_units。</t>
   </si>
   <si>
     <t>将您的体重保持在$range $weight_units。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get your weight to between $low_weight and $high_weight $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使您的体重介于$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低您的体重。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your weight of $weight $weight_units is WEIGHT_HABITS the recommended range for people HEIGHT tall. Your body mass index is $bmi. A healthy BMI is between 19.5 and 25. The healthy weight range for your height is $low_weight and $high_weight $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的体重$weight $weight_units是WEIGHT_HABITS身高为HEIGHT的人的推荐范围。您的身体质量指数是$bmi。健康的身体质量指数是介于19.5和25之间。对于您的身高而言，健康的体重范围是$low_weight至$high_weight $weight_units。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drc_variables.tmpl文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Keep your weight between $low_weight and $high_weight $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：将您的体重保持在$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：使您的体重降至$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：使您的体重介于$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：降低您的体重。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：保持当前的锻炼强度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的目标：每周进行一些锻炼。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继续定期锻炼，每周3至5次，以维持理想的体重和最佳健康状态。最好是每天散步或者进行有氧运动至少30分钟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继续定期锻炼，每周3至5次，以维持最佳健康状态。最好是每天散步或者进行有氧运动至少30分钟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>妊娠期糖尿病是指在怀孕期间被诊断为高血糖。怀有妊娠期糖尿病的女性中高达60%将会在10年内发展为2型糖尿病。将体重保持在正常范围以及定期锻炼可以降低这一风险。患有妊娠期糖尿病的女性在再次怀孕之前应该定期检查血糖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macrosomia (very large baby) occurs when the mother's blood sugar level is high. This allows too much sugar to go to the fetus and can cause the fetus to grow too large.  This could indicate you may have had gestational diabetes mellitus (GDM), HIGH BLOOD SUGAR, while pregnant.  Maintaining weight in a normal range and exercising regularly can reduce this risk. Women who have had GDM should have their blood  sugar checked regularly and before they become pregnant again.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当母亲的血糖高时，会导致巨大胎儿。因为过多的糖分被胎儿吸收，会导致胎儿长得过大。这可以表明您在怀孕期间可能患有妊娠期糖尿病和高血糖。将体重保持在正常范围以及定期锻炼可以降低这一风险。患有妊娠期糖尿病的女性在再次怀孕之前应该定期检查血糖。</t>
   </si>
   <si>
     <t>当母亲的血糖高时，会导致巨大胎儿。因为过多的糖分被胎儿吸收，会导致胎儿长得过大。这与您被诊断为妊娠期糖尿病的情况符合。怀有妊娠期糖尿病的女性中高达60%将会在10年内发展为2型糖尿病。将体重保持在正常范围以及定期锻炼可以降低这一风险。患有妊娠期糖尿病的女性在再次怀孕之前应该定期检查血糖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>With your risk level being high, you should have your blood sugar checked before you become pregnant and during any pregnancies.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>由于您的风险级别较高，您在怀孕之前和怀孕期间应该检查血糖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>With your risk level being moderate, you should have your blood sugar checked before you become pregnant and during any pregnancies.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>由于您的风险级别一般，您在怀孕之前和怀孕期间应该检查血糖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Symptoms include unusual thirst, extreme fatigue, unusual weight changes, and increased urination, especially at night.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（症状包括异常口渴、极度疲劳、不寻常的体重变化和排尿更加频繁——尤其是在夜间）</t>
   </si>
   <si>
     <t>定期锻炼的习惯将帮助降低您的风险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You should be tested regularly for the disease, as recommended by the American Diabetes Association.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>根据美国糖尿病协会的建议，您应该定期针对该疾病进行检查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>根据美国糖尿病协会的建议，您应该每3年针对该疾病检查1次。但是鉴于您的风险因素，您应该向您的医生咨询是否需要更频繁的检查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是鉴于您的风险因素，您应该向您的医生咨询是否需要更频繁的检查。</t>
   </si>
   <si>
     <t>根据美国糖尿病协会的建议，45岁以上的人通常每3年针对该疾病检查1次。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对于您的年龄而言，糖尿病检查并不是常规检查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着您的年龄增大，您的风险将会增加，请留意相关症状。</t>
   </si>
   <si>
     <t>向您的医生咨询您应该多久检查1次，并留意相关症状。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>随着您的年龄增大，您的风险将会增加，请留意相关症状。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep in mind that being $race increases your chances for having diabetes.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>请记住，作为$race，会增加您患上糖尿病的风险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您拥有患上糖尿病的风险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>只有您的医生可以确定您是否患有该疾病。立刻去您的医生那里进行检查。将该报告的结果与您的医生分享，并讨论定期的糖尿病检测安排。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Predispositions are risk factors you cannot control - like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>倾向是您无法控制的风险因素——例如</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This one factor makes it more important that you keep exercising and watch your weight.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您拥有糖尿病家族史</t>
+  </si>
+  <si>
+    <t>您出生时是巨大婴儿</t>
   </si>
   <si>
     <t>这个因素使您保持锻炼并留意体重变得更加重要。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>These DISP_NUM factors makes it more important that you EXERCISE_POINT exercising and WEIGHT_POINT your weight.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>这些DISP_NUM因素使您EXERCISE_POINT锻炼并WEIGHT_POINT您的体重变得更加重要。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如果您的父母或者兄弟姐妹患有糖尿病，您的风险也会增加。如果存在这种情况，请确保与您的医生讨论。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>At this time, you do not have any predispostions to having diabetes.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目前，您没有患上糖尿病的任何倾向。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>drc_2.tmpl文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>糖尿病患者中有三分之一的人甚至不知道自己患病。您是否存在这种风险？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族发病史：父母</t>
   </si>
   <si>
     <t>兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族发病史：父母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的个性化糖尿病风险评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以下报告是一种教育工具，旨在发现您可以控制的健康风险因素，并为您作出积极的生活方式改变提供建议。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>但是，该评估并不能代替医生的健康检查，并且它不能发现具体的身体问题。它只能教您如何避免您这个年龄段和性别的人的最常见疾病和损伤原因。请向健康专业人士咨询更多意见。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>超过1600万美国人患有糖尿病，其中三分之一并不知道自己患病。您已经迈出了第一步来确定您是否存在患上这种严重疾病的风险。糖尿病可以导致失明、心脏病、中风、肾功能衰竭和截肢。每年有将近200,000人死于糖尿病。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心脏风险评估可帮助您确定您的心脏病和中风风险。</t>
-  </si>
-  <si>
-    <t>If you have suffered renal failure or heart failure, your target blood pressure may be lower.  Get the recommended levels from your physician.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>如果您遭受了肾功能衰竭或心脏衰竭，您的目标血压可能会较低。向您的医生咨询建议的血压标准。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有一些风险因素是您无法控制的——例如您是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您患有糖尿病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的心脏病家族史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>或者您先前曾经心脏病发作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>该报告将强调您可以控制的事情。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>High blood pressure (hypertension) can be serious. It puts extra stress on your heart and blood vessels, which can cause heart disease or stroke. Consult your health care provider for ways to lower your blood pressure. These steps may include a low-fat diet, medication, and exercise.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>High blood pressure (hypertension) can be serious. It puts extra stress on your heart and blood vessels, which can cause heart disease or stroke. Your blood pressure is considered prehypertension.  This means that you don't have high blood pressure now but are at increased risk of developing it in the future.  Consult your health care provider for ways to lower your blood pressure. These steps may include a low-fat diet, exercise and other lifestyle changes.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高血压可能会导致严重后果。它会对您的心脏和血管造成额外压力，从而导致心脏病或中风。请向您的医护人员咨询降低血压的方法。措施可能包括低脂肪膳食、服药和锻炼。</t>
-  </si>
-  <si>
-    <t>健康专家推荐每周锻炼3至5次。最好是每天散步或者进行有氧运动至少30分钟。但是在开始锻炼计划之前，请咨询您的医护人员。</t>
   </si>
   <si>
     <t>高血压可能会导致严重后果。它会对您的心脏和血管造成额外压力，从而导致心脏病或中风。您的血压被视为高血压前期。这意味着您目前没有高血压，但是未来患上高血压的风险增大。请向您的医护人员咨询降低血压的方法。措施可能包括低脂肪膳食、锻炼和其他生活方式的改变。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高血压可能会导致严重后果。它会对您的心脏和血管造成额外压力，从而导致心脏病或中风。请向您的医护人员咨询降低血压的方法。措施可能包括膳食、服药和锻炼。尽快检查您的血压。这项检查快速且简单。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高血压可能会导致严重后果。它会对您的心脏和血管造成额外压力，从而导致心脏病或中风。您做得非常好，将血压保持在这种低水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You reported that your blood pressure is high. See your health care provider and get it checked soon.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您报告您的血压高。请尽快前往您的医护人员那里检查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You reported that you do not know your blood pressure reading. Get it checked immediately.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您报告您不知道您的血压读数。请立刻检查。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您报告您的血压正常。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的血压($bp_sys/$bp_dias)高于推荐范围。请向您的医护人员咨询如何将您的血压控制在140/90以下，最好是120/80以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的血压($bp_sys/$bp_dias)高于推荐范围。请向您的医护人员咨询如何通过简单的生活方式改变将血压控制在120/80以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的血压($bp_sys/$bp_dias)属于正常范围，请始终将其控制在120/80以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您没有输入您的血压数值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Get your blood pressure below 140/90 and ideally below 120/80.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的血压控制在140/90以下，最好是120/80以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Try to bring your blood pressure to the ideal reading of below 120/80.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：努力将血压控制在120/80以下这一理想范围内。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：查明您的血压。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的血压控制在120/80以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：没有为血压输入数值。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Lower your total cholesterol to under CHOLESTEROL_TARGET.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的总胆固醇降至CHOLESTEROL_TARGET以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：查明您的总胆固醇水平。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Keep your total cholesterol between LOW_TARGET and CHOLESTEROL_TARGET.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的总胆固醇控制在LOW_TARGET和CHOLESTEROL_TARGET之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You reported that you do not know your total cholesterol level. To ensure your health, get this information from your health care provider. If you have not had your cholesterol checked, it's simple. Ideally your cholesterol should be under CHOLESTEROL_TARGET. Have your cholesterol checked to make sure you're under this level.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您不知道自己的总胆固醇水平。为了确保您的健康，请从您的医护人员那里了解该信息。如果您还没有检查您的胆固醇，做这个检查非常简单。您的胆固醇最好应该在CHOLESTEROL_TARGET以下。检查您的胆固醇以确保您处于该水平以下。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您的胆固醇水平正常。向您的医护人员咨询有关您当前胆固醇水平的建议。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$cholesterol was entered for your total cholesterol level. This is within the ideal level for cholesterol, which is below CHOLESTEROL_TARGET.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$cholesterol was entered for your total cholesterol level. This is slightly above the ideal level for cholesterol, which is below CHOLESTEROL_TARGET. Ask your health care provider about ways to lower your cholesterol. Check the stories and resources listed at the end of this report for more tips.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为您的总胆固醇水平输入了$cholesterol。这属于理想的胆固醇水平——低于CHOLESTEROL_TARGET。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您的总胆固醇水平较高。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为您的总胆固醇水平输入了$cholesterol。这略高于理想的胆固醇水平（低于CHOLESTEROL_TARGET）。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为您的总胆固醇水平输入了$cholesterol。这明显高于理想的胆固醇水平（低于CHOLESTEROL_TARGET）。请向您的医护人员咨询降低胆固醇的方法。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$cholesterol was entered for your total cholesterol level. This is below the ideal level for cholesterol, which is between LOW_TARGET and CHOLESTEROL_TARGET.  Check the stories and resources listed at the end of this report for more tips.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为您的总胆固醇水平输入了$cholesterol。这低于理想的胆固醇水平（ LOW_TARGET和CHOLESTEROL_TARGET之间）。查看该报告末尾列出的案例和资源，以获得更多提示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了确保您的健康，请从您的医护人员那里了解该信息。如果您还没有检查您的胆固醇，做这个检查非常简单。您的胆固醇最好应该在CHOLESTEROL_TARGET以下。检查您的胆固醇以确保您处于该水平以下。</t>
-  </si>
-  <si>
-    <t>您的总胆固醇未知，您觉得较高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇未知，您不知道其范围。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇未知，您觉得正常。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇处于理想范围内。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇略高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇较高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的总胆固醇较低。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl. You are below the recommended level for HDL which is HDL_TARGET_LOW.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl。这低于高密度脂蛋白的推荐水平HDL_TARGET_LOW。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl. You are below the optimum level for HDL which is HDL_TARGET_HIGH.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl。这低于高密度脂蛋白的适宜水平HDL_TARGET_HIGH。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You did not enter a value for your HDL cholesterol (good cholesterol).  The recommended level is above HDL_TARGET_LOW. Since you entered a value for your cholesterol we have used an estimated value for your HDL for some computations.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您没有为您的高密度脂蛋白胆固醇（有益胆固醇）输入数值。推荐水平是高于HDL_TARGET_LOW。由于您输入了胆固醇数值，因此我们使用了高密度脂蛋白预测值来进行一些计算。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You did not enter a value for your HDL cholesterol (good cholesterol).  The recommended level is above HDL_TARGET_LOW.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您没有为您的高密度脂蛋白胆固醇（有益胆固醇）输入数值。推荐水平为高于HDL_TARGET_LOW。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your HDL cholesterol (good cholesterol) was entered as $hdl which is great.  The optimum level is HDL_TARGET_HIGH or above.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的高密度脂蛋白胆固醇（有益胆固醇）输入值为$hdl，这是很理想的数值。适宜水平是HDL_TARGET_HIGH或更高。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your HDL level is $hdl.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的高密度脂蛋白水平是$hdl。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的高密度脂蛋白水平未知。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的高密度脂蛋白提升至高于</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：查明您的高密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的高密度脂蛋白保持为高于</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：保持您当前的锻炼强度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：每周进行一些锻炼。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You exercise $exercise times per week.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每周锻炼$exercise次。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每周锻炼1次。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您不锻炼。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Keep your weight between $low_weight and $high_weight $weight_units.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的体重控制在$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的体重降至$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：将您的体重控制在$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：降低您的体重。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your weight is $weight $weight_units, which for you is a BMI of $bmi.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的体重是$weight $weight_units，您的身体质量指数是$bmi。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Your weight of $weight $weight_units is </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的体重$weight $weight_units是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>the recommended range for people HEIGHT tall.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属于身高为HEIGHT的人的推荐范围。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的身体质量指数是$bmi；大多数专业人士认为该指数应该介于19.5和25之间。对于您的身高而言，健康的体重应该介于$low_weight和$high_weight $weight_units之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：保持这个良好的饮食习惯。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Limit the amount of fatty foods in your diet.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：在您的饮食中控制高脂肪食物的数量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您坚持低饱和脂肪含量的饮食。这可以降低您的心脏病和动脉硬化风险。保持这个好习惯！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You reported occasionally eating foods that are high in cholesterol and fat.  Try to reduce your intake of fat to once a week.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您每天食用高胆固醇和高脂肪的食物。为了降低您饮食中的脂肪含量，您应该避免食用油炸食品、奶酪和全脂奶。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您食用高胆固醇和高脂肪的食物。为了降低您饮食中的脂肪含量，您应该避免食用油炸食品、奶酪和全脂奶。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（由于您患有糖尿病，请确保咨询您的医生。）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>It's good to eat at least 25-30 grams of high-fiber foods every day. Bran cereal or whole-grain bread with breakfast, salads with lunch and dinner, and two servings of cooked vegetables a day would help you reach this goal.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天最好食用至少25-30克的高纤维食物。早餐食用麦麸麦片或全麦面包、午餐和晚餐食用沙拉以及每天食用两份煮熟的蔬菜将会帮助您达到这一目标。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好！每天最好食用至少25-30克的高纤维食物。早餐食用麦麸麦片或全麦面包、午餐和晚餐食用沙拉以及每天食用两份煮熟的蔬菜将会帮助您达到这一目标。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：努力每天食用至少25-30克的高纤维食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：恭喜您！请确保每天食用25-30克的高纤维食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You seldom eat fiber.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您很少吃高纤维食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每周吃一些高纤维食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您从不吸烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您曾经吸烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每天吸1根烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoking $cigs_a_day cigarettes a day puts you at HIGH risk!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每天吸$cigs_a_day根烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天吸$cigs_a_day根烟会让您处于高风险！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好！不吸烟让您避免了导致心脏病和癌症的最主要成因。同时您也让周围的人免遭二手烟的伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoking is the number one preventable cause of heart disease and some cancers.  You are putting your heart at risk by continuing to smoke.  Even smoking $cigs_a_day cigarettes a day raises your risk. Get on a plan to quit soon. Check out the stories and resources at the end of this report for help on quitting.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸烟是心脏病和一些癌症的最主要可预防成因。继续吸烟将会使您的心脏和肺部承受风险。立刻开始戒烟计划。查看该报告底部的案例和资源，以获得戒烟帮助。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：保持不吸烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your target: Stay an ex-smoker.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：保持戒烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：戒烟。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The stress you reported can add to your risk. Try to relax, and be gentle with yourself.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告的压力可以增加您的风险。努力让自己放松，对自己友善一些。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A personal loss can take a toll on your emotions as well as your body. Don't put undue pressure on yourself or withdraw. Speaking with a trusted friend, pastor, spiritual adviser, or counselor can help ease the stress.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人损失可以对自己的情绪和身体造成严重损害。不要给自己过分的压力或者退避。与信赖的好友、牧师、心灵导师或者顾问交谈可以缓解这种压力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You reported the personal factors of PERSONAL_RISK. This makes it extra important to reach the target values in the areas you can control.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告了PERSONAL_RISK的个人因素。这使得您达到您能够控制的方面的目标数值尤为重要。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于$age-yasindaki LC_SEX而言非常低的风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Half the risk for an average $age-yasindaki LC_SEX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小于$age-yasindaki LC_SEX的平均风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显著高于$age-yasindaki LC_SEX的平均风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高于$age-yasindaki LC_SEX的平均风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>患有糖尿病</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>and a history of family heart disease</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以及拥有家族心脏病史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据您提供的答案，您在未来10年内死于心脏病的几率是千分之CARDIAC_RISK_ROUNDED。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The good habits which help to reduce your score are,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有助于降低您的分数的良好习惯是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看您的目标并努力在这些方面作出改进；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该报告包含心脏风险评估的结果。它不同于医生或护士的体检或健康检查，不能表明您是否生病或者有身体问题，只能提供一些降低心脏病和中风风险的建议。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是，该评估不能替代医生的健康检查，并不能发现具体的健康问题。它只能显示如何避免您的年龄段和性别的人群的最常见病因。请咨询健康专业人士。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average rates are based on data from death certificates of the World Health Organization adjusted for certain personal factors and reflect current patterns of health, medical practices and environmental conditions. All risks are calculated from data and algorithms Carter Center Project PEOPLE HEALTHIER Emory University with the technical support of 25 other major health agencies.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均比率基于世界卫生组织的死亡证明数据，根据某些个人因素进行了调整，并反映了当前的健康型态、医疗实践和环境状况。所有风险均采用埃默里大学卡特中心PEOPLE HEALTHIER项目的数据和算法计算，并获得了来自25个其他主要健康机构的技术支持。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHA问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的总体健康风险评估让您了解您的健康风险，并告知您可以通过改变哪些重要习惯以变得更加健康。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康风险评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康风险结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康评估输入信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康风险输入信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述您的吸烟习惯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否曾被告知患有糖尿病？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you have an immediate family member (father, mother, sister or brother) who have/had diabetes or sugar diabetes?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否有直系亲属（父亲、母亲、姐妹或兄弟）患有或曾经患有糖尿病？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否有家族（父亲、母亲、姐妹或兄弟）心脏病史，例如高血压、中风、心脏病发作或充血性心力衰竭？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否有个人心脏病史，例如高血压、中风、心脏病发作或充血性心力衰竭？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您目前是否正在服用高血压药物？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您目前是否正在服用高胆固醇药物？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您目前是否正在服药以控制您的血糖？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否按照规定的时间表和剂量服药？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不适用，我没有服药。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的甘油三酯水平：</t>
-  </si>
-  <si>
-    <t>Enter your HgA1C level:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的糖化血红蛋白水平：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter your SGOT level:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的血清谷草转氨酸水平：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的血清谷丙转氨酶水平：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的谷氨酰转肽酶水平：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入您的心率：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you eat some food every day that is high in fiber, such as whole grain bread, cereal, fresh fruits or vegetables?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否每天食用全谷面包、麦片、新鲜水果或蔬菜等高纤维食物？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否每天食用肥肉、奶酪、油炸食品、黄油或全脂奶等高胆固醇或高脂肪食物？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在多大年龄出现首次月经？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的第一个孩子出生时您多大？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您目前正怀孕吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>About how long has it been since your last mammogram (breast x-ray)?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您上次接受乳房X光造影检查是多久以前？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How many women in your natural family (mother and sisters only) have had breast cancer?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的自然家庭（仅限母亲和姐妹）中有多少女性曾经患有乳腺癌？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上一次您的乳房接受护士或医生的检查是什么时候？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否曾经切除子宫？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您上一次接受子宫颈抹片检查是什么时候？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您多久以前接受了直肠检查？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the past year, how many days (include half days or partial days) did you miss work or usual daily activities due to illness or injury?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在过去一年中，您有多少天（包括半天或一天中的部分时间）因为疾病或受伤而耽误工作或者日常活动？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How many times in the last year did you witness or become involved in a violent fight or attack where there was a good chance of a serious injury to someone?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在过去一年中，您有多少次见证或者涉及很可能导致某人严重受伤的斗殴或攻击？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在学校完成的最高年级是几年级？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您从事什么职业？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hra_qset.html文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体健康评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体健康结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体健康输入信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定性别的健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>My Family History</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的家族史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定性别的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定疾病的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Never used tobacco</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从未使用烟草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Alcohol Estimator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血液酒精浓度估测仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calories Burned Estimator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热量消耗估测仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡路里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily Energy Expenditure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+  </si>
+  <si>
+    <t>腰围</t>
+  </si>
+  <si>
+    <t>骨架大小</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>低密度脂蛋白</t>
+  </si>
+  <si>
+    <t>吸烟</t>
+  </si>
+  <si>
+    <t>烟瘾很大</t>
+  </si>
+  <si>
+    <t>略微超重</t>
+  </si>
+  <si>
+    <t>显著超重</t>
+  </si>
+  <si>
+    <t>吃太多的脂肪</t>
+  </si>
+  <si>
+    <t>膳食包含大量的纤维</t>
+  </si>
+  <si>
+    <t>膳食包含纤维</t>
+  </si>
+  <si>
+    <t>纤维不足</t>
+  </si>
+  <si>
+    <t>非常少的纤维</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>定期锻炼</t>
+  </si>
+  <si>
+    <t>没有足够的定期锻炼</t>
+  </si>
+  <si>
+    <t>不定期的锻炼</t>
+  </si>
+  <si>
+    <t>出生相关</t>
+  </si>
+  <si>
+    <t>体脂肪估测仪</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>健康评估</t>
+  </si>
+  <si>
+    <t>适度</t>
+  </si>
+  <si>
+    <t>血清谷草转氨酶分析</t>
+  </si>
+  <si>
+    <t>血清谷丙转氨酶分析</t>
+  </si>
+  <si>
+    <t>谷氨酰转肽酶分析</t>
+  </si>
+  <si>
+    <t>估计的体脂肪</t>
   </si>
   <si>
     <t>日耗能量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>损伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营养信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1杯酒被定义为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*啤酒 - 12盎司罐或瓶</t>
-  </si>
-  <si>
-    <t>*葡萄酒 - 5盎司玻璃杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Hard liquor or cocktail - 1.5 ounce shot glass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天</t>
-  </si>
-  <si>
-    <t>大约一半的时间</t>
-  </si>
-  <si>
-    <t>大部分时间</t>
-  </si>
-  <si>
-    <t>损伤信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Well Being Information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes - I felt like taking my life</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 我不关心任何事</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 几乎每天都很沮丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 有几次非常沮丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 偶尔有一点沮丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否 - 从来没有觉得沮丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>几乎每天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶尔，但不到一半时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从不</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很少的时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a good bit of the time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很多时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一直</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 大部分时间极度紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 大部分时间非常紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>的确有几次感觉相当紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有几次感觉有点紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的整体紧张感相当低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我从来不觉得紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>extremely so - I have about given up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>very much so</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 相当多的压力</t>
-  </si>
-  <si>
-    <t>相当多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些 - 足以困扰我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极其 - 达到生病的程度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>relaxed and at ease all month</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个月都轻松自在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分时间轻松自在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>felt relaxed, at times felt high strung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感到轻松，有时觉得紧张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感到紧张，但有时觉得轻松</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>high strung or keyed-up most of the time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分时间紧张或激动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个月觉得紧张或激动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 几乎无法承受</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是，有一些 - 比平常多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是，有一些 - 但是与平常差不多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 有一点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极其多 - 我几乎放弃了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一点也不</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的医护人员是否曾经告知您患有或者曾经患有以下疾病？请勾选适用的疾病或症状。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直系亲属*</t>
-  </si>
-  <si>
-    <t>*直系亲属是您的父母和兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>This completes the Personal Health Informationportion of the general health assessment. It will be presented again at the end of this report.  The next few questions will now assess your Health Risks.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是对总体健康评估的个人健康信息部分的补充。它将在该报告的末尾再次呈现。接下来的几个问题将评估您的健康风险。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟草使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体风险评估的结果将在接下来的几页公布。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您多久以前接受了直肠或前列腺检查？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您多久检查一次乳房肿块？</t>
-  </si>
-  <si>
-    <t>您多久检查一次乳房肿块？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哪项正确描述了您的总胆固醇？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述您的烟草使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用至少6份面包、麦片、米饭和意大利面的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用至少2-4份水果的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用至少3-5份蔬菜的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用至少2-3份肉类和乳制品（牛奶和奶酪）的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How often do you eat fatty meats like sausage, steak, roasts or deep fried foods?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用香肠、牛排、烤肉或油炸食品等高脂肪肉类的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How often do you eat rich breads (doughnuts, croissants) and fried grains (chips)?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用甜腻面包（甜甜圈、羊角面包）和油炸谷物（薯条）的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>How often do you eat rich desserts ice creams, custards, pies and cakes)?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您食用甜腻甜品（冰淇淋、蛋羹、馅饼和蛋糕）的频率如何？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do you have an existing condition that prevents you from exercising?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间感到沮丧吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间是否受到紧张困扰？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I felt downhearted and blue during the past month:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在上个月期间情绪低落和感到沮丧：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Were you generally tense or did you feel any tension during the past month?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间经常感到紧张或者有任何紧张感吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have you felt so sad, discouraged, or hopeless or had so many problems that you wondered if anything was worthwhile during the past month?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您上个月期间是否感到非常悲伤、沮丧或绝望，或者拥有许多问题以至于让您怀疑任何事情都不值得去做？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have you been anxious, worried, or upset during the past month?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间是否感到焦虑、担心或心烦？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have you felt relaxed, or high-strung, tight or keyed up during the past month?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间是否感到放松或者紧张或激动？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have you been under or felt you were under any strain, stress or pressure during the past month?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您在上个月期间是否感到任何压力？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力活动</t>
-  </si>
-  <si>
-    <t>总体健康</t>
-  </si>
-  <si>
-    <t>生活满意度</t>
-  </si>
-  <si>
-    <t>血压</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>总胆固醇</t>
-  </si>
-  <si>
-    <t>个人损失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alcohol use</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>饮酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在…内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>略超过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显著超过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算出的身体质量指数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>On blood pressure medicine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血压药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康的高密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知高密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低高密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>脂肪</t>
-  </si>
-  <si>
-    <t>甘油三酯</t>
-  </si>
-  <si>
-    <t>葡萄糖</t>
-  </si>
-  <si>
-    <t>不吸烟</t>
-  </si>
-  <si>
-    <t>戒烟</t>
-  </si>
-  <si>
-    <t>健康体重</t>
-  </si>
-  <si>
-    <t>超重</t>
-  </si>
-  <si>
-    <t>体重不足</t>
-  </si>
-  <si>
-    <t>低脂肪饮食</t>
-  </si>
-  <si>
-    <t>胆固醇比率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体组成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基准信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨架大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低密度脂蛋白</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>low HDL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸烟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>smoking heavily</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟瘾很大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>略微超重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显著超重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃太多的脂肪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>膳食包含大量的纤维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>膳食包含纤维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纤维不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常少的纤维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全血压</t>
-  </si>
-  <si>
-    <t>纤维</t>
-  </si>
-  <si>
-    <t>锻炼</t>
-  </si>
-  <si>
-    <t>倾向</t>
-  </si>
-  <si>
-    <t>身体质量指数</t>
-  </si>
-  <si>
-    <t>心脏评估</t>
-  </si>
-  <si>
-    <t>糖尿病评估</t>
-  </si>
-  <si>
-    <t>风险评估</t>
-  </si>
-  <si>
-    <t>胆固醇</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>非常低</t>
-  </si>
-  <si>
-    <t>腰臀比</t>
-  </si>
-  <si>
-    <t>臀部</t>
-  </si>
-  <si>
-    <t>体脂肪</t>
-  </si>
-  <si>
-    <t>详细信息</t>
-  </si>
-  <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>保持</t>
-  </si>
-  <si>
-    <t>自我乳房检​​查</t>
-  </si>
-  <si>
-    <t>更安全地驾驶</t>
-  </si>
-  <si>
-    <t>降低血压</t>
-  </si>
-  <si>
-    <t>定期检查</t>
-  </si>
-  <si>
-    <t>降低胆固醇</t>
-  </si>
-  <si>
-    <t>未知胆固醇</t>
-  </si>
-  <si>
-    <t>过低的胆固醇</t>
-  </si>
-  <si>
-    <t>胆固醇升高</t>
-  </si>
-  <si>
-    <t>多运动</t>
-  </si>
-  <si>
-    <t>减少食物中的脂肪</t>
-  </si>
-  <si>
-    <t>停止吸烟</t>
-  </si>
-  <si>
-    <t>肌肉耐力</t>
-  </si>
-  <si>
-    <t>仰卧起坐</t>
-  </si>
-  <si>
-    <t>俯卧撑</t>
-  </si>
-  <si>
-    <t>个人历史</t>
-  </si>
-  <si>
-    <t>持续</t>
-  </si>
-  <si>
-    <t>心肺耐力</t>
-  </si>
-  <si>
-    <t>概述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定期锻炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有足够的定期锻炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no regular exercise</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birth related</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不定期的锻炼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body Fat Estimator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>适度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体脂肪估测仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGOT analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血清谷草转氨酶分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGPT analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血清谷丙转氨酶分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GGT analysis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷氨酰转肽酶分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>估计的体脂肪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily energy expenditure</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>为您提供的其他读数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的评估记录。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>降低</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留意</t>
   </si>
   <si>
     <t>日常膳食中的纤维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日常纤维中的脂肪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>留意</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>子宫切除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>家族乳腺癌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Age of menarch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初潮年龄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上一次直肠检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上一次子宫颈抹片检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mammogram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳房X光造影检查</t>
   </si>
   <si>
     <t>上一次乳房X光造影检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上一次临床乳房检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cardiorespitory Endurance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心肺耐力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>健康水平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>柔韧性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已实施</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>伸展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>家族史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>您的风险水平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不可用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIT result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男性的体脂率通常比女性低，平均约为23%，理想比率为15%。非常健壮的男运动员的体脂率介于5%至10%之间。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肌肉健康让我们在实施日常任务时产生更小的生理应激反应。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的个性化健康评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果基于来自美国运动医学会和其他身体健康研究机构的数据。您的健康评估报告将帮助您对定义身体健康的五个主要方面的其中四个进行自我评估：心肺耐力、身体组成、肌肉耐力和柔韧性。若要评估定义健康的第五个要素——肌肉力量，您的当地健身房或者健身中心训练有素的专业人士应该能够提供帮助。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将您的体重降至$low_weight和$high_weight $weight_units。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当母亲的血糖高时，会导致巨大胎儿。因为过多的糖分被胎儿吸收，会导致胎儿长得过大。这可以表明您在怀孕期间可能患有妊娠期糖尿病和高血糖。将体重保持在正常范围以及定期锻炼可以降低这一风险。患有妊娠期糖尿病的女性在再次怀孕之前应该定期检查血糖。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（症状包括异常口渴、极度疲劳、不寻常的体重变化和排尿更加频繁——尤其是在夜间）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>your family history of diabetes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您拥有糖尿病家族史</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您出生时是巨大婴儿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的目标：每周3次或以上。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您很少吃高脂肪食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每周吃几次高脂肪食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每天吃高脂肪食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您每餐吃高脂肪食物。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您报告您偶尔食用高胆固醇和高脂肪的食物。努力将食用高脂肪食物的次数降至每周1次。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很好！您戒烟了。您已经显著降低了心脏病风险。同时您也让周围的人免遭二手烟的伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸烟是心脏病和一些癌症的最主要可预防成因。继续吸烟将会使您的心脏承受风险。即便每天吸$cigs_a_day根烟也会提高您的风险。立刻开始戒烟计划。查看该报告底部的案例和资源，以获得戒烟帮助。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$age-yasindaki LC_SEX平均水平的一半风险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您的个性化心脏风险评估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的上一次全面体检是？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>My last general physical exam was?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*烈性酒或鸡尾酒 - 1.5盎司烈酒杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*1.5盎司烈酒杯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是 - 我觉得要我的命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>您是否有妨碍您锻炼的现有身体状况？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3124,13 +3005,13 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3169,7 +3050,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3446,196 +3327,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C471" sqref="C471"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="101.75" customWidth="1"/>
-    <col min="3" max="3" width="101.875" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" customWidth="1"/>
+    <col min="3" max="3" width="108.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75">
       <c r="B1" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:3" ht="27">
+    <row r="3" spans="2:3" ht="30">
       <c r="B3" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="27">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="45">
       <c r="B4" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="99" customHeight="1">
+      <c r="B5" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="67.5">
-      <c r="B5" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>328</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>329</v>
+      <c r="C6" s="2" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>330</v>
+      <c r="C7" s="2" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>331</v>
+      <c r="C8" s="2" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>332</v>
+      <c r="C9" s="2" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="27">
+      <c r="C11" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="30">
       <c r="B12" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" t="s">
-        <v>843</v>
+        <v>329</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27">
+      <c r="C14" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="64.5" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="54">
+      <c r="C16" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="60">
       <c r="B17" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="81">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="105">
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>845</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>332</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30">
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>346</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="40.5">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="60">
       <c r="B22" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>356</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>353</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -3643,170 +3524,170 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>354</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>846</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>351</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="18.75">
       <c r="B28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>357</v>
+      <c r="C28" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:3" ht="40.5">
+    <row r="30" spans="2:3" ht="60">
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="30">
       <c r="B31" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>339</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="30">
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="C32" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30">
       <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="C33" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30.75" customHeight="1">
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="C34" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30">
       <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="C35" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="24" customHeight="1">
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="C36" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="27" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="27">
+      <c r="C37" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="54" customHeight="1">
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="27">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="41.25" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="40.5">
+      <c r="C39" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="45">
       <c r="B40" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="54">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="83.25" customHeight="1">
       <c r="B41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="67.5">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="98.25" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="81">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="115.5" customHeight="1">
       <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="27">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="36" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="27">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="36" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="27">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="30">
       <c r="B46" s="2" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>848</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -3814,47 +3695,47 @@
         <v>22</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="30">
       <c r="B48" s="2" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="40.5">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="55.5" customHeight="1">
       <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="34.5" customHeight="1">
       <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C50" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="27">
+      <c r="C50" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="37.5" customHeight="1">
       <c r="B51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="C51" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="24" customHeight="1">
       <c r="B52" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>381</v>
+        <v>786</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3862,103 +3743,103 @@
         <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="30">
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="25.5" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="30" customHeight="1">
       <c r="B56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="40.5">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="48.75" customHeight="1">
       <c r="B57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="21.75" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="23.25" customHeight="1">
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="21.75" customHeight="1">
       <c r="B60" s="2" t="s">
-        <v>849</v>
+        <v>726</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="28.5" customHeight="1">
       <c r="B61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="41.25" customHeight="1">
       <c r="B62" s="2" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="27">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="33.75" customHeight="1">
       <c r="B63" s="2" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="27">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="39.75" customHeight="1">
       <c r="B64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="21.75" customHeight="1">
       <c r="B65" s="2" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>397</v>
+        <v>799</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -3971,68 +3852,67 @@
       <c r="B68" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>398</v>
+      <c r="C68" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3">
+    </row>
+    <row r="70" spans="2:3" ht="24.75" customHeight="1">
       <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="24" customHeight="1">
       <c r="B71" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="21.75" customHeight="1">
       <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="27" customHeight="1">
       <c r="B73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="27">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="53.25" customHeight="1">
       <c r="B74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C74" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="54">
+      <c r="C74" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="60">
       <c r="B75" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="54">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="75">
       <c r="B76" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>405</v>
+        <v>806</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -4043,122 +3923,122 @@
         <v>319</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" ht="30">
       <c r="B81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C81" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="27">
+      <c r="C81" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="30">
       <c r="B82" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C82" t="s">
-        <v>409</v>
+        <v>356</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C83" t="s">
-        <v>410</v>
+      <c r="C83" s="2" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C84" t="s">
-        <v>390</v>
+      <c r="C84" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C85" t="s">
-        <v>411</v>
+      <c r="C85" s="2" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C86" t="s">
-        <v>412</v>
+      <c r="C86" s="2" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C87" t="s">
-        <v>413</v>
+      <c r="C87" s="2" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C88" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="40.5">
+      <c r="C88" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="60">
       <c r="B89" s="2" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="67.5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="90">
       <c r="B90" s="2" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="54">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="75">
       <c r="B91" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="40.5">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="45">
       <c r="B92" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="30">
       <c r="B93" s="2" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="30">
       <c r="B94" s="2" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>425</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -4166,575 +4046,575 @@
         <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="27">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="45">
       <c r="B96" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="27">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="45">
       <c r="B97" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="30">
       <c r="B98" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="27" customHeight="1">
       <c r="B99" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="24.75" customHeight="1">
       <c r="B100" s="2" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="21.75" customHeight="1">
       <c r="B101" s="2" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="24.75" customHeight="1">
       <c r="B102" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="21.75" customHeight="1">
       <c r="B103" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="23.25" customHeight="1">
       <c r="B104" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="25.5" customHeight="1">
       <c r="B105" s="2" t="s">
-        <v>438</v>
+        <v>371</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="27.75" customHeight="1">
       <c r="B106" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="37.5" customHeight="1">
       <c r="B107" s="2" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="34.5" customHeight="1">
       <c r="B108" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="30">
       <c r="B109" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="27">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="57" customHeight="1">
       <c r="B110" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="54">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="90.75" customHeight="1">
       <c r="B111" s="2" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="27">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="37.5" customHeight="1">
       <c r="B112" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="27">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="45.75" customHeight="1">
       <c r="B113" s="2" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="40.5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" ht="75" customHeight="1">
       <c r="B114" s="2" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="54">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="60">
       <c r="B115" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="40.5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="45">
       <c r="B116" s="2" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="40.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="69" customHeight="1">
       <c r="B117" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="25.5" customHeight="1">
       <c r="B118" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="21" customHeight="1">
       <c r="B119" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="21.75" customHeight="1">
       <c r="B120" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="24.75" customHeight="1">
       <c r="B121" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="21" customHeight="1">
       <c r="B122" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="25.5" customHeight="1">
       <c r="B123" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="26.25" customHeight="1">
       <c r="B124" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="27">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="43.5" customHeight="1">
       <c r="B125" s="2" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" ht="27">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" ht="34.5" customHeight="1">
       <c r="B126" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C126" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="40.5">
+        <v>397</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="45">
       <c r="B127" s="2" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" ht="27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="30">
       <c r="B128" s="2" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" ht="27">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="30">
       <c r="B129" s="2" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="22.5" customHeight="1">
       <c r="B130" s="2" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="23.25" customHeight="1">
       <c r="B131" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="21.75" customHeight="1">
       <c r="B132" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="22.5" customHeight="1">
       <c r="B133" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" ht="20.25" customHeight="1">
       <c r="B134" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="25.5" customHeight="1">
       <c r="B135" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="24" customHeight="1">
       <c r="B136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="24.75" customHeight="1">
       <c r="B137" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="22.5" customHeight="1">
       <c r="B138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" ht="27">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="51.75" customHeight="1">
       <c r="B139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" ht="27">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="44.25" customHeight="1">
       <c r="B140" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" ht="40.5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="45">
       <c r="B141" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="22.5" customHeight="1">
       <c r="B142" s="2" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="19.5" customHeight="1">
       <c r="B143" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="25.5" customHeight="1">
       <c r="B144" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="30">
       <c r="B145" s="2" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="30">
       <c r="B146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="30">
       <c r="B147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="22.5" customHeight="1">
       <c r="B148" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="30">
       <c r="B149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="22.5" customHeight="1">
       <c r="B150" s="2" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="24.75" customHeight="1">
       <c r="B151" s="2" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="22.5" customHeight="1">
       <c r="B152" s="2" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" ht="27">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="45">
       <c r="B153" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="24" customHeight="1">
       <c r="B154" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="23.25" customHeight="1">
       <c r="B155" s="2" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="26.25" customHeight="1">
       <c r="B156" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" ht="21" customHeight="1">
       <c r="B157" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="24" customHeight="1">
       <c r="B158" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="23.25" customHeight="1">
       <c r="B159" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" ht="27">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="39.75" customHeight="1">
       <c r="B160" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" ht="27">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" ht="36" customHeight="1">
       <c r="B161" s="2" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" ht="27">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="45">
       <c r="B162" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" ht="27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="45">
       <c r="B163" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="24.75" customHeight="1">
       <c r="B164" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" ht="40.5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="45">
       <c r="B165" s="2" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" ht="40.5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" ht="45">
       <c r="B166" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="2:3">
@@ -4742,7 +4622,7 @@
         <v>90</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="2:3">
@@ -4750,15 +4630,15 @@
         <v>91</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" s="2" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="2:3">
@@ -4766,7 +4646,7 @@
         <v>92</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="2:3">
@@ -4774,7 +4654,7 @@
         <v>93</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="2:3">
@@ -4782,7 +4662,7 @@
         <v>94</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="2:3">
@@ -4790,7 +4670,7 @@
         <v>95</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="2:3">
@@ -4798,47 +4678,47 @@
         <v>96</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" ht="27">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" ht="45">
       <c r="B176" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="177" spans="2:3" ht="27">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="30">
       <c r="B177" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="178" spans="2:3" ht="54">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" ht="60">
       <c r="B178" s="2" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" ht="40.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="60">
       <c r="B179" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="2:3">
@@ -4846,15 +4726,15 @@
         <v>100</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="2" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="2:3">
@@ -4862,39 +4742,39 @@
         <v>101</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="183" spans="2:3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="30">
       <c r="B183" s="2" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="184" spans="2:3" ht="40.5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" ht="45">
       <c r="B184" s="2" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="185" spans="2:3" ht="27">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="30">
       <c r="B185" s="2" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="186" spans="2:3" ht="27">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" ht="30">
       <c r="B186" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
     </row>
     <row r="187" spans="2:3">
@@ -4902,15 +4782,15 @@
         <v>103</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="2" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>860</v>
+        <v>735</v>
       </c>
     </row>
     <row r="189" spans="2:3">
@@ -4918,7 +4798,7 @@
         <v>104</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="2:3">
@@ -4926,7 +4806,7 @@
         <v>105</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="2:3">
@@ -4934,7 +4814,7 @@
         <v>106</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="2:3">
@@ -4942,31 +4822,31 @@
         <v>107</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="2" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3" ht="27">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="30">
       <c r="B194" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="2" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="2:3">
@@ -4974,7 +4854,7 @@
         <v>109</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="2:3">
@@ -4982,7 +4862,7 @@
         <v>110</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
     </row>
     <row r="198" spans="2:3">
@@ -4990,31 +4870,31 @@
         <v>111</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="40.5">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" ht="60">
       <c r="B199" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" ht="40.5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" ht="60">
       <c r="B200" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" ht="54">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" ht="75">
       <c r="B201" s="2" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="18.75">
@@ -5022,1181 +4902,1181 @@
         <v>320</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="2"/>
     </row>
-    <row r="206" spans="2:3" ht="27">
+    <row r="206" spans="2:3" ht="30">
       <c r="B206" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C206" t="s">
-        <v>549</v>
+      <c r="C206" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C207" t="s">
-        <v>550</v>
+      <c r="C207" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C208" t="s">
-        <v>551</v>
+      <c r="C208" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C209" t="s">
-        <v>552</v>
+      <c r="C209" s="2" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C210" t="s">
-        <v>553</v>
+      <c r="C210" s="2" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C211" t="s">
-        <v>554</v>
+      <c r="C211" s="2" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C212" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="27">
+      <c r="C212" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" ht="30">
       <c r="B213" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C213" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="27">
+        <v>489</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" ht="30">
       <c r="B214" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C214" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" ht="27">
+      <c r="C214" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" ht="30">
       <c r="B215" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C215" t="s">
-        <v>559</v>
+      <c r="C215" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C216" t="s">
-        <v>560</v>
+      <c r="C216" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C217" t="s">
-        <v>561</v>
+      <c r="C217" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C218" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="219" spans="2:3">
+      <c r="C218" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="30">
       <c r="B219" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C219" t="s">
-        <v>563</v>
+      <c r="C219" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C220" t="s">
-        <v>564</v>
+      <c r="C220" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C221" t="s">
-        <v>565</v>
+      <c r="C221" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C222" t="s">
-        <v>567</v>
+        <v>499</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C223" t="s">
-        <v>569</v>
+        <v>501</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C224" t="s">
-        <v>570</v>
+      <c r="C224" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C225" t="s">
-        <v>571</v>
+      <c r="C225" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C226" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" ht="27">
+      <c r="C226" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" ht="30">
       <c r="B227" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C227" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" ht="27">
+        <v>506</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" ht="30">
       <c r="B228" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C228" t="s">
-        <v>575</v>
+      <c r="C228" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="C229" t="s">
-        <v>862</v>
+        <v>738</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C230" t="s">
-        <v>681</v>
+      <c r="C230" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C231" t="s">
-        <v>576</v>
+      <c r="C231" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C232" t="s">
-        <v>577</v>
+      <c r="C232" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C233" t="s">
-        <v>578</v>
+      <c r="C233" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C234" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3">
+        <v>512</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" ht="30">
       <c r="B235" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C235" t="s">
-        <v>582</v>
+        <v>514</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C236" t="s">
-        <v>682</v>
+      <c r="C236" s="2" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C237" t="s">
-        <v>583</v>
+      <c r="C237" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C238" t="s">
-        <v>584</v>
+      <c r="C238" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C239" t="s">
-        <v>585</v>
+      <c r="C239" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C240" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" ht="27">
+      <c r="C240" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="30">
       <c r="B241" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C241" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" ht="27">
+        <v>520</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="30">
       <c r="B242" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C242" t="s">
-        <v>590</v>
+        <v>522</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C243" t="s">
-        <v>591</v>
+      <c r="C243" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C244" t="s">
-        <v>592</v>
+      <c r="C244" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="18.75">
       <c r="B246" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>593</v>
+      <c r="C246" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="2"/>
     </row>
-    <row r="248" spans="2:3" ht="27">
+    <row r="248" spans="2:3" ht="30">
       <c r="B248" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C248" t="s">
-        <v>549</v>
+      <c r="C248" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C249" t="s">
-        <v>594</v>
+      <c r="C249" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C250" t="s">
-        <v>595</v>
+      <c r="C250" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C251" t="s">
-        <v>596</v>
+      <c r="C251" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C252" t="s">
-        <v>597</v>
+      <c r="C252" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C253" t="s">
-        <v>598</v>
+      <c r="C253" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C254" t="s">
-        <v>599</v>
+      <c r="C254" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C255" t="s">
-        <v>601</v>
+        <v>533</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C256" t="s">
-        <v>602</v>
+      <c r="C256" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C257" t="s">
-        <v>603</v>
+      <c r="C257" s="2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C258" t="s">
-        <v>605</v>
+        <v>537</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C259" t="s">
-        <v>606</v>
+      <c r="C259" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C260" t="s">
-        <v>607</v>
+      <c r="C260" s="2" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C261" t="s">
-        <v>608</v>
+      <c r="C261" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C262" t="s">
-        <v>611</v>
+      <c r="C262" s="2" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C263" t="s">
-        <v>610</v>
+        <v>542</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C264" t="s">
-        <v>613</v>
+        <v>545</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C265" t="s">
-        <v>614</v>
+      <c r="C265" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C266" t="s">
-        <v>616</v>
+        <v>548</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C267" t="s">
-        <v>617</v>
+      <c r="C267" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C268" t="s">
-        <v>618</v>
+      <c r="C268" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C269" t="s">
-        <v>618</v>
+      <c r="C269" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C270" t="s">
-        <v>619</v>
+      <c r="C270" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C271" t="s">
-        <v>620</v>
+      <c r="C271" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C272" t="s">
-        <v>622</v>
+      <c r="C272" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C273" t="s">
-        <v>621</v>
+      <c r="C273" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C274" t="s">
-        <v>864</v>
+        <v>556</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C275" t="s">
-        <v>865</v>
+      <c r="C275" s="2" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="276" spans="2:3">
       <c r="B276" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C276" t="s">
-        <v>627</v>
+      <c r="C276" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="277" spans="2:3">
       <c r="B277" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C277" t="s">
-        <v>628</v>
+      <c r="C277" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="2:3">
       <c r="B278" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C278" t="s">
-        <v>630</v>
+        <v>562</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="279" spans="2:3">
       <c r="B279" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C279" t="s">
-        <v>866</v>
+        <v>564</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="280" spans="2:3">
       <c r="B280" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C280" t="s">
-        <v>632</v>
+      <c r="C280" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="2:3">
       <c r="B281" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C281" t="s">
-        <v>633</v>
+      <c r="C281" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="282" spans="2:3">
       <c r="B282" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C282" t="s">
-        <v>634</v>
+      <c r="C282" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="2:3">
       <c r="B283" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C283" t="s">
-        <v>635</v>
+      <c r="C283" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="284" spans="2:3">
       <c r="B284" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C284" t="s">
-        <v>636</v>
+      <c r="C284" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="2:3">
       <c r="B285" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C285" t="s">
-        <v>624</v>
+      <c r="C285" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="286" spans="2:3">
       <c r="B286" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C286" t="s">
-        <v>637</v>
+      <c r="C286" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="2:3">
       <c r="B287" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C287" t="s">
-        <v>625</v>
+      <c r="C287" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="288" spans="2:3">
       <c r="B288" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C288" t="s">
-        <v>638</v>
+      <c r="C288" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="2:3">
       <c r="B289" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C289" t="s">
-        <v>639</v>
+      <c r="C289" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C290" t="s">
-        <v>640</v>
+      <c r="C290" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C291" t="s">
-        <v>641</v>
+      <c r="C291" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C292" t="s">
-        <v>643</v>
+        <v>575</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C293" t="s">
-        <v>626</v>
+      <c r="C293" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C294" t="s">
-        <v>644</v>
+      <c r="C294" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C295" t="s">
-        <v>645</v>
+      <c r="C295" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="296" spans="2:3">
       <c r="B296" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C296" t="s">
-        <v>646</v>
+      <c r="C296" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C297" t="s">
-        <v>647</v>
+      <c r="C297" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C298" t="s">
-        <v>648</v>
+      <c r="C298" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C299" t="s">
-        <v>649</v>
+      <c r="C299" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="300" spans="2:3">
       <c r="B300" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C300" t="s">
-        <v>650</v>
+      <c r="C300" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C301" t="s">
-        <v>670</v>
+        <v>584</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C302" t="s">
-        <v>671</v>
+        <v>585</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="2:3">
       <c r="B303" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C303" t="s">
-        <v>654</v>
+      <c r="C303" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C304" t="s">
-        <v>655</v>
+      <c r="C304" s="2" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C305" t="s">
-        <v>672</v>
+      <c r="C305" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C306" t="s">
-        <v>673</v>
+      <c r="C306" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="307" spans="2:3">
       <c r="B307" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C307" t="s">
-        <v>656</v>
+      <c r="C307" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C308" t="s">
-        <v>658</v>
+        <v>590</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C309" t="s">
-        <v>659</v>
+      <c r="C309" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C310" t="s">
-        <v>661</v>
+        <v>593</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C311" t="s">
-        <v>662</v>
+      <c r="C311" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="312" spans="2:3">
       <c r="B312" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C312" t="s">
-        <v>664</v>
+        <v>596</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="313" spans="2:3">
       <c r="B313" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C313" t="s">
-        <v>665</v>
+      <c r="C313" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="314" spans="2:3">
       <c r="B314" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C314" t="s">
-        <v>666</v>
+      <c r="C314" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="315" spans="2:3">
       <c r="B315" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C315" t="s">
-        <v>653</v>
+      <c r="C315" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="316" spans="2:3">
       <c r="B316" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C316" t="s">
-        <v>667</v>
+      <c r="C316" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="317" spans="2:3">
       <c r="B317" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C317" t="s">
-        <v>668</v>
+      <c r="C317" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="318" spans="2:3">
       <c r="B318" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C318" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="319" spans="2:3" ht="27">
+      <c r="C318" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" ht="30">
       <c r="B319" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C319" t="s">
-        <v>674</v>
+      <c r="C319" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="320" spans="2:3">
       <c r="B320" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C320" t="s">
-        <v>675</v>
+      <c r="C320" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C321" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="322" spans="2:3" ht="27">
+      <c r="C321" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" ht="45">
       <c r="B322" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C322" t="s">
-        <v>678</v>
+        <v>610</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C323" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3">
+      <c r="C323" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" ht="30">
       <c r="B324" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C324" t="s">
-        <v>680</v>
+      <c r="C324" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C325" t="s">
-        <v>681</v>
+      <c r="C325" s="2" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C326" t="s">
-        <v>576</v>
+      <c r="C326" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C327" t="s">
-        <v>577</v>
+      <c r="C327" s="2" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C328" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3">
+      <c r="C328" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" ht="30">
       <c r="B329" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C329" t="s">
-        <v>582</v>
+      <c r="C329" s="2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C330" t="s">
-        <v>683</v>
+      <c r="C330" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="2:3">
       <c r="B331" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C331" t="s">
-        <v>583</v>
+      <c r="C331" s="2" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="332" spans="2:3">
       <c r="B332" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C332" t="s">
-        <v>584</v>
+      <c r="C332" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="333" spans="2:3">
       <c r="B333" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C333" t="s">
-        <v>585</v>
+      <c r="C333" s="2" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="334" spans="2:3">
       <c r="B334" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C334" t="s">
-        <v>586</v>
+      <c r="C334" s="2" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C335" t="s">
-        <v>684</v>
+      <c r="C335" s="2" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C336" t="s">
-        <v>685</v>
+      <c r="C336" s="2" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="337" spans="2:3">
       <c r="B337" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C337" t="s">
-        <v>686</v>
+      <c r="C337" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="338" spans="2:3">
       <c r="B338" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C338" t="s">
-        <v>687</v>
+      <c r="C338" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="339" spans="2:3">
       <c r="B339" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C339" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3">
+      <c r="C339" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" ht="30">
       <c r="B340" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C340" t="s">
-        <v>689</v>
+      <c r="C340" s="2" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="341" spans="2:3">
       <c r="B341" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C341" t="s">
-        <v>691</v>
+        <v>623</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="342" spans="2:3">
       <c r="B342" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C342" t="s">
-        <v>693</v>
+        <v>625</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="343" spans="2:3">
       <c r="B343" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C343" t="s">
-        <v>695</v>
+        <v>627</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="344" spans="2:3">
       <c r="B344" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="C344" t="s">
-        <v>867</v>
+        <v>629</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="345" spans="2:3">
       <c r="B345" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C345" t="s">
-        <v>697</v>
+      <c r="C345" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C346" t="s">
-        <v>698</v>
+      <c r="C346" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="347" spans="2:3">
       <c r="B347" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="C347" t="s">
-        <v>700</v>
+        <v>632</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="348" spans="2:3">
       <c r="B348" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C348" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" ht="27">
+        <v>634</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" ht="30">
       <c r="B349" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C349" t="s">
-        <v>704</v>
+        <v>636</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="350" spans="2:3">
       <c r="B350" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C350" t="s">
-        <v>706</v>
+        <v>638</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="351" spans="2:3">
       <c r="B351" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C351" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3">
+        <v>640</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" ht="30">
       <c r="B352" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C352" t="s">
-        <v>710</v>
+        <v>642</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="354" spans="2:3" ht="18.75">
       <c r="B354" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C354" s="1" t="s">
-        <v>711</v>
+      <c r="C354" s="3" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="355" spans="2:3">
@@ -6206,928 +6086,928 @@
       <c r="B356" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C356" t="s">
-        <v>712</v>
+      <c r="C356" s="2" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="357" spans="2:3">
       <c r="B357" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C357" t="s">
-        <v>713</v>
+      <c r="C357" s="2" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="358" spans="2:3">
       <c r="B358" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C358" t="s">
-        <v>714</v>
+      <c r="C358" s="2" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="359" spans="2:3">
       <c r="B359" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C359" t="s">
-        <v>718</v>
+      <c r="C359" s="2" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="360" spans="2:3">
       <c r="B360" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C360" t="s">
-        <v>715</v>
+      <c r="C360" s="2" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="361" spans="2:3">
       <c r="B361" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C361" t="s">
-        <v>720</v>
+        <v>652</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="2:3">
       <c r="B362" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C362" t="s">
-        <v>721</v>
+      <c r="C362" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="363" spans="2:3">
       <c r="B363" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C363" t="s">
-        <v>722</v>
+      <c r="C363" s="2" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="364" spans="2:3">
       <c r="B364" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C364" t="s">
-        <v>723</v>
+      <c r="C364" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="365" spans="2:3">
       <c r="B365" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C365" t="s">
-        <v>724</v>
+      <c r="C365" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="366" spans="2:3">
       <c r="B366" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C366" t="s">
-        <v>725</v>
+      <c r="C366" s="2" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="367" spans="2:3">
       <c r="B367" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C367" t="s">
-        <v>716</v>
+      <c r="C367" s="2" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="368" spans="2:3">
       <c r="B368" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C368" t="s">
-        <v>717</v>
+      <c r="C368" s="2" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="369" spans="2:3">
       <c r="B369" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C369" t="s">
-        <v>726</v>
+      <c r="C369" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="2:3">
       <c r="B370" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C370" t="s">
-        <v>727</v>
+      <c r="C370" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="371" spans="2:3">
       <c r="B371" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C371" t="s">
-        <v>729</v>
+        <v>661</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="372" spans="2:3">
       <c r="B372" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C372" t="s">
-        <v>730</v>
+      <c r="C372" s="2" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="373" spans="2:3">
       <c r="B373" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C373" t="s">
-        <v>731</v>
+      <c r="C373" s="2" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="374" spans="2:3">
       <c r="B374" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C374" t="s">
-        <v>732</v>
+      <c r="C374" s="2" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="375" spans="2:3">
       <c r="B375" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="C375" t="s">
-        <v>733</v>
+        <v>679</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="376" spans="2:3">
       <c r="B376" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C376" t="s">
-        <v>743</v>
+      <c r="C376" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="377" spans="2:3">
       <c r="B377" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C377" t="s">
-        <v>744</v>
+      <c r="C377" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="378" spans="2:3">
       <c r="B378" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C378" t="s">
-        <v>745</v>
+      <c r="C378" s="2" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="379" spans="2:3">
       <c r="B379" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C379" t="s">
-        <v>746</v>
+      <c r="C379" s="2" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="380" spans="2:3">
       <c r="B380" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C380" t="s">
-        <v>747</v>
+      <c r="C380" s="2" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="381" spans="2:3">
       <c r="B381" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C381" t="s">
-        <v>748</v>
+      <c r="C381" s="2" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="382" spans="2:3">
       <c r="B382" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C382" t="s">
-        <v>749</v>
+      <c r="C382" s="2" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="383" spans="2:3">
       <c r="B383" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C383" t="s">
-        <v>734</v>
+      <c r="C383" s="2" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="384" spans="2:3">
       <c r="B384" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C384" t="s">
-        <v>750</v>
+      <c r="C384" s="2" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="385" spans="2:3">
       <c r="B385" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C385" t="s">
-        <v>735</v>
+      <c r="C385" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="386" spans="2:3">
       <c r="B386" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C386" t="s">
-        <v>736</v>
+      <c r="C386" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="387" spans="2:3">
       <c r="B387" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C387" t="s">
-        <v>752</v>
+      <c r="C387" s="2" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="388" spans="2:3">
       <c r="B388" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C388" t="s">
-        <v>737</v>
+      <c r="C388" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="389" spans="2:3">
       <c r="B389" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C389" t="s">
-        <v>738</v>
+      <c r="C389" s="2" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="390" spans="2:3">
       <c r="B390" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C390" t="s">
-        <v>754</v>
+        <v>680</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="391" spans="2:3">
       <c r="B391" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C391" t="s">
-        <v>739</v>
+      <c r="C391" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="392" spans="2:3">
       <c r="B392" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C392" t="s">
-        <v>755</v>
+      <c r="C392" s="2" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="393" spans="2:3">
       <c r="B393" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C393" t="s">
-        <v>740</v>
+      <c r="C393" s="2" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="394" spans="2:3">
       <c r="B394" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C394" t="s">
-        <v>756</v>
+      <c r="C394" s="2" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="395" spans="2:3">
       <c r="B395" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C395" t="s">
-        <v>741</v>
+      <c r="C395" s="2" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="396" spans="2:3">
       <c r="B396" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C396" t="s">
-        <v>757</v>
+      <c r="C396" s="2" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="397" spans="2:3">
       <c r="B397" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C397" t="s">
-        <v>742</v>
+      <c r="C397" s="2" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="398" spans="2:3">
       <c r="B398" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C398" t="s">
-        <v>758</v>
+      <c r="C398" s="2" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="399" spans="2:3">
       <c r="B399" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C399" t="s">
-        <v>759</v>
+      <c r="C399" s="2" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="400" spans="2:3">
       <c r="B400" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C400" t="s">
-        <v>760</v>
+      <c r="C400" s="2" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="401" spans="2:3">
       <c r="B401" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C401" t="s">
-        <v>761</v>
+      <c r="C401" s="2" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="402" spans="2:3">
       <c r="B402" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C402" t="s">
-        <v>762</v>
+      <c r="C402" s="2" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="403" spans="2:3">
       <c r="B403" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C403" t="s">
-        <v>763</v>
+      <c r="C403" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="404" spans="2:3">
       <c r="B404" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C404" t="s">
-        <v>796</v>
+      <c r="C404" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="405" spans="2:3">
       <c r="B405" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C405" t="s">
-        <v>764</v>
+      <c r="C405" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="406" spans="2:3">
       <c r="B406" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C406" t="s">
-        <v>797</v>
+      <c r="C406" s="2" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="407" spans="2:3">
       <c r="B407" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C407" t="s">
-        <v>798</v>
+      <c r="C407" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="408" spans="2:3">
       <c r="B408" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C408" t="s">
-        <v>802</v>
+        <v>715</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="409" spans="2:3">
       <c r="B409" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C409" t="s">
-        <v>801</v>
+        <v>716</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="410" spans="2:3">
       <c r="B410" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C410" t="s">
-        <v>765</v>
+      <c r="C410" s="2" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="411" spans="2:3">
       <c r="B411" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C411" t="s">
-        <v>766</v>
+      <c r="C411" s="2" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="412" spans="2:3">
       <c r="B412" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C412" t="s">
-        <v>807</v>
+        <v>717</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="413" spans="2:3">
       <c r="B413" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C413" t="s">
-        <v>804</v>
+      <c r="C413" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="414" spans="2:3">
       <c r="B414" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C414" t="s">
-        <v>767</v>
+      <c r="C414" s="2" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="415" spans="2:3">
       <c r="B415" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C415" t="s">
-        <v>768</v>
+      <c r="C415" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="416" spans="2:3">
       <c r="B416" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C416" t="s">
-        <v>805</v>
+      <c r="C416" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="417" spans="2:3">
       <c r="B417" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C417" t="s">
-        <v>769</v>
+      <c r="C417" s="2" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="418" spans="2:3">
       <c r="B418" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C418" t="s">
-        <v>770</v>
+      <c r="C418" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="419" spans="2:3">
       <c r="B419" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C419" t="s">
-        <v>771</v>
+      <c r="C419" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="420" spans="2:3">
       <c r="B420" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C420" t="s">
-        <v>772</v>
+      <c r="C420" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="421" spans="2:3">
       <c r="B421" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C421" t="s">
-        <v>806</v>
+      <c r="C421" s="2" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="422" spans="2:3">
       <c r="B422" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C422" t="s">
-        <v>773</v>
+      <c r="C422" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="423" spans="2:3">
       <c r="B423" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C423" t="s">
-        <v>774</v>
+      <c r="C423" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="424" spans="2:3">
       <c r="B424" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C424" t="s">
-        <v>775</v>
+      <c r="C424" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="425" spans="2:3">
       <c r="B425" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C425" t="s">
-        <v>809</v>
+        <v>718</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="426" spans="2:3">
       <c r="B426" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C426" t="s">
-        <v>811</v>
+        <v>719</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="427" spans="2:3">
       <c r="B427" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C427" t="s">
-        <v>813</v>
+        <v>720</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="428" spans="2:3">
       <c r="B428" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C428" t="s">
-        <v>814</v>
+      <c r="C428" s="2" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="429" spans="2:3">
       <c r="B429" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C429" t="s">
-        <v>616</v>
+        <v>721</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C430" t="s">
-        <v>776</v>
+      <c r="C430" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C431" t="s">
-        <v>816</v>
+      <c r="C431" s="2" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C432" t="s">
-        <v>817</v>
+      <c r="C432" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C433" t="s">
-        <v>777</v>
+      <c r="C433" s="2" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C434" t="s">
-        <v>778</v>
+      <c r="C434" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C435" t="s">
-        <v>818</v>
+      <c r="C435" s="2" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C436" t="s">
-        <v>821</v>
+      <c r="C436" s="2" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="437" spans="2:3">
       <c r="B437" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C437" t="s">
-        <v>819</v>
+      <c r="C437" s="2" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="438" spans="2:3">
       <c r="B438" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C438" t="s">
-        <v>820</v>
+      <c r="C438" s="2" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="439" spans="2:3">
       <c r="B439" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C439" t="s">
-        <v>822</v>
+      <c r="C439" s="2" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="440" spans="2:3">
       <c r="B440" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C440" t="s">
-        <v>823</v>
+      <c r="C440" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="441" spans="2:3">
       <c r="B441" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C441" t="s">
-        <v>825</v>
+        <v>722</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="442" spans="2:3">
       <c r="B442" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C442" t="s">
-        <v>826</v>
+      <c r="C442" s="2" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="443" spans="2:3">
       <c r="B443" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C443" t="s">
-        <v>827</v>
+      <c r="C443" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="444" spans="2:3">
       <c r="B444" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C444" t="s">
-        <v>829</v>
+        <v>723</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="445" spans="2:3">
       <c r="B445" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C445" t="s">
-        <v>830</v>
+      <c r="C445" s="2" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="446" spans="2:3">
       <c r="B446" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C446" t="s">
-        <v>831</v>
+      <c r="C446" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="447" spans="2:3">
       <c r="B447" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C447" t="s">
-        <v>779</v>
+      <c r="C447" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="448" spans="2:3">
       <c r="B448" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C448" t="s">
-        <v>780</v>
+      <c r="C448" s="2" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="449" spans="2:3">
       <c r="B449" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C449" t="s">
-        <v>781</v>
+      <c r="C449" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="450" spans="2:3">
       <c r="B450" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C450" t="s">
-        <v>782</v>
+      <c r="C450" s="2" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="451" spans="2:3">
       <c r="B451" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C451" t="s">
-        <v>783</v>
+      <c r="C451" s="2" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="452" spans="2:3">
       <c r="B452" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C452" t="s">
-        <v>784</v>
+      <c r="C452" s="2" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="453" spans="2:3">
       <c r="B453" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C453" t="s">
-        <v>785</v>
+      <c r="C453" s="2" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="454" spans="2:3">
       <c r="B454" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C454" t="s">
-        <v>786</v>
+      <c r="C454" s="2" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="455" spans="2:3">
       <c r="B455" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C455" t="s">
-        <v>787</v>
+      <c r="C455" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="456" spans="2:3">
       <c r="B456" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C456" t="s">
-        <v>788</v>
+      <c r="C456" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C457" t="s">
-        <v>789</v>
+      <c r="C457" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C458" t="s">
-        <v>833</v>
+        <v>725</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C459" t="s">
-        <v>834</v>
+      <c r="C459" s="2" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C460" t="s">
-        <v>790</v>
+      <c r="C460" s="2" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C461" t="s">
-        <v>791</v>
+      <c r="C461" s="2" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="462" spans="2:3">
       <c r="B462" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C462" t="s">
-        <v>792</v>
+      <c r="C462" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="463" spans="2:3">
       <c r="B463" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C463" t="s">
-        <v>835</v>
+      <c r="C463" s="2" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C464" t="s">
-        <v>836</v>
+      <c r="C464" s="2" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="465" spans="2:3">
       <c r="B465" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C465" t="s">
-        <v>837</v>
+      <c r="C465" s="2" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C466" t="s">
-        <v>838</v>
+      <c r="C466" s="2" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="467" spans="2:3">
       <c r="B467" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C467" t="s">
-        <v>793</v>
+      <c r="C467" s="2" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="468" spans="2:3">
       <c r="B468" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C468" t="s">
-        <v>794</v>
+      <c r="C468" s="2" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="469" spans="2:3">
       <c r="B469" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C469" t="s">
-        <v>839</v>
+      <c r="C469" s="2" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C470" t="s">
-        <v>840</v>
+      <c r="C470" s="2" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="471" spans="2:3">
       <c r="B471" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C471" t="s">
-        <v>795</v>
+      <c r="C471" s="2" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
